--- a/Examples/AHP_Ratings_Lunch/lunchModel_Ratings_Results.xlsx
+++ b/Examples/AHP_Ratings_Lunch/lunchModel_Ratings_Results.xlsx
@@ -278,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -320,6 +320,7 @@
     <xf numFmtId="0" fontId="6" fillId="23" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="7" fillId="21" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="8" fillId="22" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1434,6 +1435,62 @@
         <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="57">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="57">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="57">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="57">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="71">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="71">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="71">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="71">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H14">
     <cfRule type="dataBar" priority="30">
@@ -1520,6 +1577,48 @@
         <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="57">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="57">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="57">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="71">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="71">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="71">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I23">
     <cfRule type="dataBar" priority="31">
@@ -1634,6 +1733,62 @@
         <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="57">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="57">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="57">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="57">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="71">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="71">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="71">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="71">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:H31">
     <cfRule type="dataBar" priority="32">
@@ -1714,6 +1869,48 @@
       </dataBar>
     </cfRule>
     <cfRule type="dataBar" priority="43">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="57">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="57">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="57">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="71">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="71">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="71">
       <dataBar showValue="1">
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1865,110 +2062,141 @@
       <c r="G7" s="37" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="B9" s="35" t="inlineStr">
+      <c r="B9" s="41" t="n">
+        <v>0.2609430406361969</v>
+      </c>
+      <c r="C9" s="41" t="n">
+        <v>0.1189592698979585</v>
+      </c>
+      <c r="D9" s="41" t="n">
+        <v>0.1689279835267223</v>
+      </c>
+      <c r="E9" s="41" t="n">
+        <v>0.4511697059391224</v>
+      </c>
+      <c r="F9" s="38" t="inlineStr">
+        <is>
+          <t>TOTALS</t>
+        </is>
+      </c>
+      <c r="G9" s="38" t="inlineStr">
+        <is>
+          <t>PRIORITIES</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="41" t="inlineStr">
         <is>
           <t>1Quality</t>
         </is>
       </c>
-      <c r="C9" s="35" t="inlineStr">
+      <c r="C10" s="41" t="inlineStr">
         <is>
           <t>2Price</t>
         </is>
       </c>
-      <c r="D9" s="35" t="inlineStr">
+      <c r="D10" s="41" t="inlineStr">
         <is>
           <t>3Menu</t>
         </is>
       </c>
-      <c r="E9" s="35" t="inlineStr">
+      <c r="E10" s="41" t="inlineStr">
         <is>
           <t>4Speed</t>
         </is>
       </c>
-      <c r="F9" s="38" t="inlineStr">
-        <is>
-          <t>TOTALS</t>
-        </is>
-      </c>
-      <c r="G9" s="38" t="inlineStr">
-        <is>
-          <t>PRIORITIES</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="27" t="n">
-        <v>0.2609430406361969</v>
-      </c>
-      <c r="C10" s="27" t="n">
-        <v>0.1189592698979585</v>
-      </c>
-      <c r="D10" s="27" t="n">
-        <v>0.1689279835267223</v>
-      </c>
-      <c r="E10" s="27" t="n">
-        <v>0.4511697059391224</v>
+    </row>
+    <row r="11">
+      <c r="A11" s="35" t="inlineStr">
+        <is>
+          <t>1Panera</t>
+        </is>
+      </c>
+      <c r="B11" s="27">
+        <f>INDEX(rating_scales!I3:I6, MATCH(B2,rating_scales!A3:A6, 0))</f>
+        <v/>
+      </c>
+      <c r="C11" s="27">
+        <f>INDEX(rating_scales!H12:H14, MATCH(C2,rating_scales!A12:A14, 0))</f>
+        <v/>
+      </c>
+      <c r="D11" s="27">
+        <f>INDEX(rating_scales!I20:I23, MATCH(D2,rating_scales!A20:A23, 0))</f>
+        <v/>
+      </c>
+      <c r="E11" s="27">
+        <f>INDEX(rating_scales!H29:H31, MATCH(E2,rating_scales!A29:A31, 0))</f>
+        <v/>
+      </c>
+      <c r="F11" s="39">
+        <f>sumproduct(B11:E11,B9:E9)</f>
+        <v/>
+      </c>
+      <c r="G11" s="40">
+        <f>F11/sum(F11:F13)</f>
+        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="35" t="inlineStr">
         <is>
-          <t>1Panera</t>
+          <t>2Primanti</t>
         </is>
       </c>
       <c r="B12" s="27">
-        <f>INDEX(rating_scales!I3:I6, MATCH(B2,rating_scales!A3:A6, 0))</f>
+        <f>INDEX(rating_scales!I3:I6, MATCH(B3,rating_scales!A3:A6, 0))</f>
         <v/>
       </c>
       <c r="C12" s="27">
-        <f>INDEX(rating_scales!H12:H14, MATCH(C2,rating_scales!A12:A14, 0))</f>
+        <f>INDEX(rating_scales!H12:H14, MATCH(C3,rating_scales!A12:A14, 0))</f>
         <v/>
       </c>
       <c r="D12" s="27">
-        <f>INDEX(rating_scales!I20:I23, MATCH(D2,rating_scales!A20:A23, 0))</f>
+        <f>INDEX(rating_scales!I20:I23, MATCH(D3,rating_scales!A20:A23, 0))</f>
         <v/>
       </c>
       <c r="E12" s="27">
-        <f>INDEX(rating_scales!H29:H31, MATCH(E2,rating_scales!A29:A31, 0))</f>
+        <f>INDEX(rating_scales!H29:H31, MATCH(E3,rating_scales!A29:A31, 0))</f>
         <v/>
       </c>
       <c r="F12" s="39">
-        <f>sumproduct(B12:E12,B10:E10)</f>
+        <f>sumproduct(B12:E12,B9:E9)</f>
         <v/>
       </c>
       <c r="G12" s="40">
-        <f>F12/sum(F12:F14)</f>
+        <f>F12/sum(F11:F13)</f>
         <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="35" t="inlineStr">
         <is>
-          <t>2Primanti</t>
+          <t>3Subway</t>
         </is>
       </c>
       <c r="B13" s="27">
-        <f>INDEX(rating_scales!I3:I6, MATCH(B3,rating_scales!A3:A6, 0))</f>
+        <f>INDEX(rating_scales!I3:I6, MATCH(B4,rating_scales!A3:A6, 0))</f>
         <v/>
       </c>
       <c r="C13" s="27">
-        <f>INDEX(rating_scales!H12:H14, MATCH(C3,rating_scales!A12:A14, 0))</f>
+        <f>INDEX(rating_scales!H12:H14, MATCH(C4,rating_scales!A12:A14, 0))</f>
         <v/>
       </c>
       <c r="D13" s="27">
-        <f>INDEX(rating_scales!I20:I23, MATCH(D3,rating_scales!A20:A23, 0))</f>
+        <f>INDEX(rating_scales!I20:I23, MATCH(D4,rating_scales!A20:A23, 0))</f>
         <v/>
       </c>
       <c r="E13" s="27">
-        <f>INDEX(rating_scales!H29:H31, MATCH(E3,rating_scales!A29:A31, 0))</f>
+        <f>INDEX(rating_scales!H29:H31, MATCH(E4,rating_scales!A29:A31, 0))</f>
         <v/>
       </c>
       <c r="F13" s="39">
-        <f>sumproduct(B13:E13,B10:E10)</f>
+        <f>sumproduct(B13:E13,B9:E9)</f>
         <v/>
       </c>
       <c r="G13" s="40">
-        <f>F13/sum(F12:F14)</f>
+        <f>F13/sum(F11:F13)</f>
         <v/>
       </c>
     </row>
@@ -2004,7 +2232,79 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="12">
+  <dataValidations count="36">
+    <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="C2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="D2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="E2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="C2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="D2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="E2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
     <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>=rating_scales!A3:A6</formula1>
     </dataValidation>

--- a/Examples/AHP_Ratings_Lunch/lunchModel_Ratings_Results.xlsx
+++ b/Examples/AHP_Ratings_Lunch/lunchModel_Ratings_Results.xlsx
@@ -2,15 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16700" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="rating_scales" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="rating_table" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -19,38 +20,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FF123EF1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -66,69 +42,12 @@
       <color rgb="ff000000"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="13">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB6E5F2"/>
-        <bgColor rgb="FFB6E5F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB6D7A8"/>
-        <bgColor rgb="FFB6D7A8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBCBCBC"/>
-        <bgColor rgb="FFBCBCBC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF6B"/>
-        <bgColor rgb="FFFFFF6B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD1D5DE"/>
-        <bgColor rgb="FFD1D5DE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE4F7"/>
-        <bgColor rgb="FFFFE4F7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF9D5B6"/>
-        <bgColor rgb="FFF9D5B6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFB3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2FA07"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -180,11 +99,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="ffcde4f7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="ffffffcc"/>
       </patternFill>
     </fill>
@@ -199,55 +113,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -276,54 +142,33 @@
     <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="7" fillId="21" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="8" fillId="22" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -692,9 +537,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="9"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="20" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
@@ -706,785 +551,673 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>1Quality</t>
         </is>
       </c>
-      <c r="B1" s="22" t="n"/>
-      <c r="C1" s="22" t="n"/>
-      <c r="D1" s="22" t="n"/>
-      <c r="E1" s="22" t="n"/>
-      <c r="F1" s="22" t="n"/>
-      <c r="H1" s="30" t="inlineStr">
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="H1" s="10" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
-      <c r="I1" s="31" t="n"/>
+      <c r="I1" s="11" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="23" t="n"/>
-      <c r="B2" s="24" t="inlineStr">
+      <c r="A2" s="3" t="n"/>
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>Excellent</t>
         </is>
       </c>
-      <c r="C2" s="24" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>Above Average</t>
         </is>
       </c>
-      <c r="D2" s="24" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
       </c>
-      <c r="E2" s="24" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>Poor</t>
         </is>
       </c>
-      <c r="F2" s="25" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>Direct values</t>
         </is>
       </c>
-      <c r="H2" s="32" t="inlineStr">
+      <c r="H2" s="12" t="inlineStr">
         <is>
           <t>Normal</t>
         </is>
       </c>
-      <c r="I2" s="32" t="inlineStr">
+      <c r="I2" s="12" t="inlineStr">
         <is>
           <t>Ideal</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="24" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>Excellent</t>
         </is>
       </c>
-      <c r="B3" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="27" t="n">
+      <c r="B3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="n">
         <v>1.8</v>
       </c>
-      <c r="D3" s="27" t="n">
+      <c r="D3" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="E3" s="27" t="n">
+      <c r="E3" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="F3" s="28" t="n"/>
-      <c r="H3" s="32" t="n">
+      <c r="F3" s="8" t="n"/>
+      <c r="H3" s="12" t="n">
         <v>0.548</v>
       </c>
-      <c r="I3" s="32" t="n">
+      <c r="I3" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="24" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>Above Average</t>
         </is>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="9">
         <f>1/C3</f>
         <v/>
       </c>
-      <c r="C4" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="27" t="n">
+      <c r="C4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="E4" s="27" t="n">
+      <c r="E4" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="F4" s="28" t="n"/>
-      <c r="H4" s="32" t="n">
+      <c r="F4" s="8" t="n"/>
+      <c r="H4" s="12" t="n">
         <v>0.304</v>
       </c>
-      <c r="I4" s="32" t="n">
+      <c r="I4" s="12" t="n">
         <v>0.555</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="24" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="9">
         <f>1/D3</f>
         <v/>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="9">
         <f>1/D4</f>
         <v/>
       </c>
-      <c r="D5" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="27" t="n">
+      <c r="D5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="F5" s="28" t="n"/>
-      <c r="H5" s="32" t="n">
+      <c r="F5" s="8" t="n"/>
+      <c r="H5" s="12" t="n">
         <v>0.103</v>
       </c>
-      <c r="I5" s="32" t="n">
+      <c r="I5" s="12" t="n">
         <v>0.188</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="24" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>Poor</t>
         </is>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="9">
         <f>1/E3</f>
         <v/>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="9">
         <f>1/E4</f>
         <v/>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="9">
         <f>1/E5</f>
         <v/>
       </c>
-      <c r="E6" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="28" t="n"/>
-      <c r="H6" s="32" t="n">
+      <c r="E6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8" t="n"/>
+      <c r="H6" s="12" t="n">
         <v>0.045</v>
       </c>
-      <c r="I6" s="32" t="n">
+      <c r="I6" s="12" t="n">
         <v>0.083</v>
       </c>
     </row>
     <row r="7">
-      <c r="H7" s="33" t="inlineStr">
+      <c r="H7" s="13" t="inlineStr">
         <is>
           <t>Incons.</t>
         </is>
       </c>
-      <c r="I7" s="34" t="n">
+      <c r="I7" s="14" t="n">
         <v>0.023</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="21" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>2Price</t>
         </is>
       </c>
-      <c r="B10" s="22" t="n"/>
-      <c r="C10" s="22" t="n"/>
-      <c r="D10" s="22" t="n"/>
-      <c r="E10" s="22" t="n"/>
-      <c r="G10" s="30" t="inlineStr">
+      <c r="B10" s="2" t="n"/>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="2" t="n"/>
+      <c r="G10" s="10" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
-      <c r="H10" s="31" t="n"/>
+      <c r="H10" s="11" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="23" t="n"/>
-      <c r="B11" s="24" t="inlineStr">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>6 to 8 dollars</t>
         </is>
       </c>
-      <c r="C11" s="24" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>8 to 10 dollars</t>
         </is>
       </c>
-      <c r="D11" s="24" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t>more than 10 dollars</t>
         </is>
       </c>
-      <c r="E11" s="25" t="inlineStr">
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>Direct values</t>
         </is>
       </c>
-      <c r="G11" s="32" t="inlineStr">
+      <c r="G11" s="12" t="inlineStr">
         <is>
           <t>Normal</t>
         </is>
       </c>
-      <c r="H11" s="32" t="inlineStr">
+      <c r="H11" s="12" t="inlineStr">
         <is>
           <t>Ideal</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="24" t="inlineStr">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>6 to 8 dollars</t>
         </is>
       </c>
-      <c r="B12" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="27" t="n">
+      <c r="B12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7" t="n">
         <v>0.5</v>
       </c>
-      <c r="D12" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="28" t="n"/>
-      <c r="G12" s="32" t="n">
+      <c r="D12" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8" t="n"/>
+      <c r="G12" s="12" t="n">
         <v>0.25</v>
       </c>
-      <c r="H12" s="32" t="n">
+      <c r="H12" s="12" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="24" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>8 to 10 dollars</t>
         </is>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="9">
         <f>1/C12</f>
         <v/>
       </c>
-      <c r="C13" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="27" t="n">
+      <c r="C13" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="E13" s="28" t="n"/>
-      <c r="G13" s="32" t="n">
+      <c r="E13" s="8" t="n"/>
+      <c r="G13" s="12" t="n">
         <v>0.5</v>
       </c>
-      <c r="H13" s="32" t="n">
+      <c r="H13" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="24" t="inlineStr">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>more than 10 dollars</t>
         </is>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="9">
         <f>1/D12</f>
         <v/>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="9">
         <f>1/D13</f>
         <v/>
       </c>
-      <c r="D14" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="28" t="n"/>
-      <c r="G14" s="32" t="n">
+      <c r="D14" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8" t="n"/>
+      <c r="G14" s="12" t="n">
         <v>0.25</v>
       </c>
-      <c r="H14" s="32" t="n">
+      <c r="H14" s="12" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="15">
-      <c r="G15" s="33" t="inlineStr">
+      <c r="G15" s="13" t="inlineStr">
         <is>
           <t>Incons.</t>
         </is>
       </c>
-      <c r="H15" s="34" t="n">
+      <c r="H15" s="14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="21" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>3Menu</t>
         </is>
       </c>
-      <c r="B18" s="22" t="n"/>
-      <c r="C18" s="22" t="n"/>
-      <c r="D18" s="22" t="n"/>
-      <c r="E18" s="22" t="n"/>
-      <c r="F18" s="22" t="n"/>
-      <c r="H18" s="30" t="inlineStr">
+      <c r="B18" s="2" t="n"/>
+      <c r="C18" s="2" t="n"/>
+      <c r="D18" s="2" t="n"/>
+      <c r="E18" s="2" t="n"/>
+      <c r="F18" s="2" t="n"/>
+      <c r="H18" s="10" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
-      <c r="I18" s="31" t="n"/>
+      <c r="I18" s="11" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="23" t="n"/>
-      <c r="B19" s="24" t="inlineStr">
+      <c r="A19" s="3" t="n"/>
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>Excellent</t>
         </is>
       </c>
-      <c r="C19" s="24" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>Above Average</t>
         </is>
       </c>
-      <c r="D19" s="24" t="inlineStr">
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
       </c>
-      <c r="E19" s="24" t="inlineStr">
+      <c r="E19" s="4" t="inlineStr">
         <is>
           <t>Poor</t>
         </is>
       </c>
-      <c r="F19" s="25" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>Direct values</t>
         </is>
       </c>
-      <c r="H19" s="32" t="inlineStr">
+      <c r="H19" s="12" t="inlineStr">
         <is>
           <t>Normal</t>
         </is>
       </c>
-      <c r="I19" s="32" t="inlineStr">
+      <c r="I19" s="12" t="inlineStr">
         <is>
           <t>Ideal</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="24" t="inlineStr">
+      <c r="A20" s="4" t="inlineStr">
         <is>
           <t>Excellent</t>
         </is>
       </c>
-      <c r="B20" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="27" t="n">
+      <c r="B20" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7" t="n">
         <v>1.8</v>
       </c>
-      <c r="D20" s="27" t="n">
+      <c r="D20" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="E20" s="27" t="n">
+      <c r="E20" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="F20" s="28" t="n"/>
-      <c r="H20" s="32" t="n">
+      <c r="F20" s="8" t="n"/>
+      <c r="H20" s="12" t="n">
         <v>0.548</v>
       </c>
-      <c r="I20" s="32" t="n">
+      <c r="I20" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="24" t="inlineStr">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>Above Average</t>
         </is>
       </c>
-      <c r="B21" s="29">
+      <c r="B21" s="9">
         <f>1/C20</f>
         <v/>
       </c>
-      <c r="C21" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="27" t="n">
+      <c r="C21" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="E21" s="27" t="n">
+      <c r="E21" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="F21" s="28" t="n"/>
-      <c r="H21" s="32" t="n">
+      <c r="F21" s="8" t="n"/>
+      <c r="H21" s="12" t="n">
         <v>0.304</v>
       </c>
-      <c r="I21" s="32" t="n">
+      <c r="I21" s="12" t="n">
         <v>0.555</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="24" t="inlineStr">
+      <c r="A22" s="4" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
       </c>
-      <c r="B22" s="29">
+      <c r="B22" s="9">
         <f>1/D20</f>
         <v/>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="9">
         <f>1/D21</f>
         <v/>
       </c>
-      <c r="D22" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="27" t="n">
+      <c r="D22" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="F22" s="28" t="n"/>
-      <c r="H22" s="32" t="n">
+      <c r="F22" s="8" t="n"/>
+      <c r="H22" s="12" t="n">
         <v>0.103</v>
       </c>
-      <c r="I22" s="32" t="n">
+      <c r="I22" s="12" t="n">
         <v>0.188</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="24" t="inlineStr">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>Poor</t>
         </is>
       </c>
-      <c r="B23" s="29">
+      <c r="B23" s="9">
         <f>1/E20</f>
         <v/>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="9">
         <f>1/E21</f>
         <v/>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="9">
         <f>1/E22</f>
         <v/>
       </c>
-      <c r="E23" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="28" t="n"/>
-      <c r="H23" s="32" t="n">
+      <c r="E23" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="8" t="n"/>
+      <c r="H23" s="12" t="n">
         <v>0.045</v>
       </c>
-      <c r="I23" s="32" t="n">
+      <c r="I23" s="12" t="n">
         <v>0.083</v>
       </c>
     </row>
     <row r="24">
-      <c r="H24" s="33" t="inlineStr">
+      <c r="H24" s="13" t="inlineStr">
         <is>
           <t>Incons.</t>
         </is>
       </c>
-      <c r="I24" s="34" t="n">
+      <c r="I24" s="14" t="n">
         <v>0.023</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="21" t="inlineStr">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>4Speed</t>
         </is>
       </c>
-      <c r="B27" s="22" t="n"/>
-      <c r="C27" s="22" t="n"/>
-      <c r="D27" s="22" t="n"/>
-      <c r="E27" s="22" t="n"/>
-      <c r="G27" s="30" t="inlineStr">
+      <c r="B27" s="2" t="n"/>
+      <c r="C27" s="2" t="n"/>
+      <c r="D27" s="2" t="n"/>
+      <c r="E27" s="2" t="n"/>
+      <c r="G27" s="10" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
-      <c r="H27" s="31" t="n"/>
+      <c r="H27" s="11" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="23" t="n"/>
-      <c r="B28" s="24" t="inlineStr">
+      <c r="A28" s="3" t="n"/>
+      <c r="B28" s="4" t="inlineStr">
         <is>
           <t>5 minutes</t>
         </is>
       </c>
-      <c r="C28" s="24" t="inlineStr">
+      <c r="C28" s="4" t="inlineStr">
         <is>
           <t>10 minutes</t>
         </is>
       </c>
-      <c r="D28" s="24" t="inlineStr">
+      <c r="D28" s="4" t="inlineStr">
         <is>
           <t>15 minutes</t>
         </is>
       </c>
-      <c r="E28" s="25" t="inlineStr">
+      <c r="E28" s="5" t="inlineStr">
         <is>
           <t>Direct values</t>
         </is>
       </c>
-      <c r="G28" s="32" t="inlineStr">
+      <c r="G28" s="12" t="inlineStr">
         <is>
           <t>Normal</t>
         </is>
       </c>
-      <c r="H28" s="32" t="inlineStr">
+      <c r="H28" s="12" t="inlineStr">
         <is>
           <t>Ideal</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="24" t="inlineStr">
+      <c r="A29" s="4" t="inlineStr">
         <is>
           <t>5 minutes</t>
         </is>
       </c>
-      <c r="B29" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" s="27" t="n">
+      <c r="B29" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="D29" s="27" t="n">
+      <c r="D29" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="E29" s="28" t="n"/>
-      <c r="G29" s="32" t="n">
+      <c r="E29" s="8" t="n"/>
+      <c r="G29" s="12" t="n">
         <v>0.779</v>
       </c>
-      <c r="H29" s="32" t="n">
+      <c r="H29" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="24" t="inlineStr">
+      <c r="A30" s="4" t="inlineStr">
         <is>
           <t>10 minutes</t>
         </is>
       </c>
-      <c r="B30" s="29">
+      <c r="B30" s="9">
         <f>1/C29</f>
         <v/>
       </c>
-      <c r="C30" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="27" t="n">
+      <c r="C30" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="E30" s="28" t="n"/>
-      <c r="G30" s="32" t="n">
+      <c r="E30" s="8" t="n"/>
+      <c r="G30" s="12" t="n">
         <v>0.143</v>
       </c>
-      <c r="H30" s="32" t="n">
+      <c r="H30" s="12" t="n">
         <v>0.183</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="24" t="inlineStr">
+      <c r="A31" s="4" t="inlineStr">
         <is>
           <t>15 minutes</t>
         </is>
       </c>
-      <c r="B31" s="29">
+      <c r="B31" s="9">
         <f>1/D29</f>
         <v/>
       </c>
-      <c r="C31" s="29">
+      <c r="C31" s="9">
         <f>1/D30</f>
         <v/>
       </c>
-      <c r="D31" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="28" t="n"/>
-      <c r="G31" s="32" t="n">
+      <c r="D31" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="8" t="n"/>
+      <c r="G31" s="12" t="n">
         <v>0.079</v>
       </c>
-      <c r="H31" s="32" t="n">
+      <c r="H31" s="12" t="n">
         <v>0.101</v>
       </c>
     </row>
     <row r="32">
-      <c r="G32" s="33" t="inlineStr">
+      <c r="G32" s="13" t="inlineStr">
         <is>
           <t>Incons.</t>
         </is>
       </c>
-      <c r="H32" s="34" t="n">
+      <c r="H32" s="14" t="n">
         <v>0.008999999999999999</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I3:I6">
     <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF0B30B5"/>
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
     <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF0B30B5"/>
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
     <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF0B30B5"/>
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
     <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF0B30B5"/>
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
     <cfRule type="dataBar" priority="15">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF0B30B5"/>
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
     <cfRule type="dataBar" priority="15">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF0B30B5"/>
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
     <cfRule type="dataBar" priority="15">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF0B30B5"/>
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
     <cfRule type="dataBar" priority="15">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF0B30B5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="29">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF0B30B5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="29">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF0B30B5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="29">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF0B30B5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="29">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF0B30B5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="43">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="43">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="43">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="43">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="57">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="57">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="57">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="57">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="71">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="71">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="71">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="71">
       <dataBar showValue="1">
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1493,126 +1226,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H14">
-    <cfRule type="dataBar" priority="30">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF0B30B5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="30">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF0B30B5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="30">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF0B30B5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="30">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF0B30B5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="30">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF0B30B5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="30">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF0B30B5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="30">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF0B30B5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="30">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF0B30B5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="30">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF0B30B5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="43">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="43">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="43">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="57">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="57">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="57">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="71">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="71">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="71">
+    <cfRule type="dataBar" priority="1">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="1">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="1">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="15">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="15">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="15">
       <dataBar showValue="1">
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1621,168 +1270,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I23">
-    <cfRule type="dataBar" priority="31">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF0B30B5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="31">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF0B30B5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="31">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF0B30B5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="31">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF0B30B5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="31">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF0B30B5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="31">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF0B30B5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="31">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF0B30B5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="31">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF0B30B5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="31">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF0B30B5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="31">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF0B30B5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="31">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF0B30B5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="31">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF0B30B5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="43">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="43">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="43">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="43">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="57">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="57">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="57">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="57">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="71">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="71">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="71">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="71">
+    <cfRule type="dataBar" priority="1">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="1">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="1">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="1">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="15">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="15">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="15">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="15">
       <dataBar showValue="1">
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1791,126 +1328,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:H31">
-    <cfRule type="dataBar" priority="32">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF0B30B5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="32">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF0B30B5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="32">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF0B30B5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="32">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF0B30B5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="32">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF0B30B5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="32">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF0B30B5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="32">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF0B30B5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="32">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF0B30B5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="32">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF0B30B5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="43">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="43">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="43">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="57">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="57">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="57">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="71">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="71">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="71">
+    <cfRule type="dataBar" priority="1">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="1">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="1">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="15">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="15">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="15">
       <dataBar showValue="1">
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1928,15 +1381,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="7"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="20" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
@@ -1946,329 +1399,262 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="35" t="inlineStr">
+      <c r="B1" s="15" t="inlineStr">
         <is>
           <t>1Quality</t>
         </is>
       </c>
-      <c r="C1" s="35" t="inlineStr">
+      <c r="C1" s="15" t="inlineStr">
         <is>
           <t>2Price</t>
         </is>
       </c>
-      <c r="D1" s="35" t="inlineStr">
+      <c r="D1" s="15" t="inlineStr">
         <is>
           <t>3Menu</t>
         </is>
       </c>
-      <c r="E1" s="35" t="inlineStr">
+      <c r="E1" s="15" t="inlineStr">
         <is>
           <t>4Speed</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="35" t="inlineStr">
+      <c r="A2" s="15" t="inlineStr">
         <is>
           <t>1Panera</t>
         </is>
       </c>
-      <c r="B2" s="36" t="inlineStr">
+      <c r="B2" s="16" t="inlineStr">
         <is>
           <t>Above Average</t>
         </is>
       </c>
-      <c r="C2" s="36" t="inlineStr">
+      <c r="C2" s="16" t="inlineStr">
         <is>
           <t>8 to 10 dollars</t>
         </is>
       </c>
-      <c r="D2" s="36" t="inlineStr">
+      <c r="D2" s="16" t="inlineStr">
         <is>
           <t>Excellent</t>
         </is>
       </c>
-      <c r="E2" s="36" t="inlineStr">
+      <c r="E2" s="16" t="inlineStr">
         <is>
           <t>10 minutes</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="35" t="inlineStr">
+      <c r="A3" s="15" t="inlineStr">
         <is>
           <t>2Primanti</t>
         </is>
       </c>
-      <c r="B3" s="36" t="inlineStr">
+      <c r="B3" s="16" t="inlineStr">
         <is>
           <t>Poor</t>
         </is>
       </c>
-      <c r="C3" s="36" t="inlineStr">
+      <c r="C3" s="16" t="inlineStr">
         <is>
           <t>more than 10 dollars</t>
         </is>
       </c>
-      <c r="D3" s="36" t="inlineStr">
+      <c r="D3" s="16" t="inlineStr">
         <is>
           <t>Poor</t>
         </is>
       </c>
-      <c r="E3" s="36" t="inlineStr">
+      <c r="E3" s="16" t="inlineStr">
         <is>
           <t>10 minutes</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="35" t="inlineStr">
+      <c r="A4" s="15" t="inlineStr">
         <is>
           <t>3Subway</t>
         </is>
       </c>
-      <c r="B4" s="36" t="inlineStr">
+      <c r="B4" s="16" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
       </c>
-      <c r="C4" s="36" t="inlineStr">
+      <c r="C4" s="16" t="inlineStr">
         <is>
           <t>6 to 8 dollars</t>
         </is>
       </c>
-      <c r="D4" s="36" t="inlineStr">
+      <c r="D4" s="16" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
       </c>
-      <c r="E4" s="36" t="inlineStr">
+      <c r="E4" s="16" t="inlineStr">
         <is>
           <t>10 minutes</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="37" t="inlineStr">
+      <c r="A7" s="17" t="inlineStr">
         <is>
           <t>ESTIMATED RESULTS</t>
         </is>
       </c>
-      <c r="B7" s="37" t="inlineStr"/>
-      <c r="C7" s="37" t="inlineStr"/>
-      <c r="D7" s="37" t="inlineStr"/>
-      <c r="E7" s="37" t="inlineStr"/>
-      <c r="F7" s="37" t="inlineStr"/>
-      <c r="G7" s="37" t="inlineStr"/>
+      <c r="B7" s="17" t="inlineStr"/>
+      <c r="C7" s="17" t="inlineStr"/>
+      <c r="D7" s="17" t="inlineStr"/>
+      <c r="E7" s="17" t="inlineStr"/>
+      <c r="F7" s="17" t="inlineStr"/>
+      <c r="G7" s="17" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="B9" s="41" t="n">
+      <c r="B9" s="7" t="n">
         <v>0.2609430406361969</v>
       </c>
-      <c r="C9" s="41" t="n">
+      <c r="C9" s="7" t="n">
         <v>0.1189592698979585</v>
       </c>
-      <c r="D9" s="41" t="n">
+      <c r="D9" s="7" t="n">
         <v>0.1689279835267223</v>
       </c>
-      <c r="E9" s="41" t="n">
+      <c r="E9" s="7" t="n">
         <v>0.4511697059391224</v>
       </c>
-      <c r="F9" s="38" t="inlineStr">
+      <c r="F9" s="18" t="inlineStr">
         <is>
           <t>TOTALS</t>
         </is>
       </c>
-      <c r="G9" s="38" t="inlineStr">
+      <c r="G9" s="18" t="inlineStr">
         <is>
           <t>PRIORITIES</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="41" t="inlineStr">
+      <c r="B10" s="15" t="inlineStr">
         <is>
           <t>1Quality</t>
         </is>
       </c>
-      <c r="C10" s="41" t="inlineStr">
+      <c r="C10" s="15" t="inlineStr">
         <is>
           <t>2Price</t>
         </is>
       </c>
-      <c r="D10" s="41" t="inlineStr">
+      <c r="D10" s="15" t="inlineStr">
         <is>
           <t>3Menu</t>
         </is>
       </c>
-      <c r="E10" s="41" t="inlineStr">
+      <c r="E10" s="15" t="inlineStr">
         <is>
           <t>4Speed</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="35" t="inlineStr">
+      <c r="A11" s="15" t="inlineStr">
         <is>
           <t>1Panera</t>
         </is>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="7">
         <f>INDEX(rating_scales!I3:I6, MATCH(B2,rating_scales!A3:A6, 0))</f>
         <v/>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="7">
         <f>INDEX(rating_scales!H12:H14, MATCH(C2,rating_scales!A12:A14, 0))</f>
         <v/>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="7">
         <f>INDEX(rating_scales!I20:I23, MATCH(D2,rating_scales!A20:A23, 0))</f>
         <v/>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="7">
         <f>INDEX(rating_scales!H29:H31, MATCH(E2,rating_scales!A29:A31, 0))</f>
         <v/>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="19">
         <f>sumproduct(B11:E11,B9:E9)</f>
         <v/>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="20">
         <f>F11/sum(F11:F13)</f>
         <v/>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="35" t="inlineStr">
+      <c r="A12" s="15" t="inlineStr">
         <is>
           <t>2Primanti</t>
         </is>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="7">
         <f>INDEX(rating_scales!I3:I6, MATCH(B3,rating_scales!A3:A6, 0))</f>
         <v/>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="7">
         <f>INDEX(rating_scales!H12:H14, MATCH(C3,rating_scales!A12:A14, 0))</f>
         <v/>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="7">
         <f>INDEX(rating_scales!I20:I23, MATCH(D3,rating_scales!A20:A23, 0))</f>
         <v/>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="7">
         <f>INDEX(rating_scales!H29:H31, MATCH(E3,rating_scales!A29:A31, 0))</f>
         <v/>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="19">
         <f>sumproduct(B12:E12,B9:E9)</f>
         <v/>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="20">
         <f>F12/sum(F11:F13)</f>
         <v/>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="35" t="inlineStr">
+      <c r="A13" s="15" t="inlineStr">
         <is>
           <t>3Subway</t>
         </is>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="7">
         <f>INDEX(rating_scales!I3:I6, MATCH(B4,rating_scales!A3:A6, 0))</f>
         <v/>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="7">
         <f>INDEX(rating_scales!H12:H14, MATCH(C4,rating_scales!A12:A14, 0))</f>
         <v/>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="7">
         <f>INDEX(rating_scales!I20:I23, MATCH(D4,rating_scales!A20:A23, 0))</f>
         <v/>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="7">
         <f>INDEX(rating_scales!H29:H31, MATCH(E4,rating_scales!A29:A31, 0))</f>
         <v/>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="19">
         <f>sumproduct(B13:E13,B9:E9)</f>
         <v/>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="20">
         <f>F13/sum(F11:F13)</f>
         <v/>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="35" t="inlineStr">
-        <is>
-          <t>3Subway</t>
-        </is>
-      </c>
-      <c r="B14" s="27">
-        <f>INDEX(rating_scales!I3:I6, MATCH(B4,rating_scales!A3:A6, 0))</f>
-        <v/>
-      </c>
-      <c r="C14" s="27">
-        <f>INDEX(rating_scales!H12:H14, MATCH(C4,rating_scales!A12:A14, 0))</f>
-        <v/>
-      </c>
-      <c r="D14" s="27">
-        <f>INDEX(rating_scales!I20:I23, MATCH(D4,rating_scales!A20:A23, 0))</f>
-        <v/>
-      </c>
-      <c r="E14" s="27">
-        <f>INDEX(rating_scales!H29:H31, MATCH(E4,rating_scales!A29:A31, 0))</f>
-        <v/>
-      </c>
-      <c r="F14" s="39">
-        <f>sumproduct(B14:E14,B10:E10)</f>
-        <v/>
-      </c>
-      <c r="G14" s="40">
-        <f>F14/sum(F12:F14)</f>
-        <v/>
-      </c>
-    </row>
   </sheetData>
-  <dataValidations count="36">
-    <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A3:A6</formula1>
-    </dataValidation>
-    <dataValidation sqref="B3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A3:A6</formula1>
-    </dataValidation>
-    <dataValidation sqref="B4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A3:A6</formula1>
-    </dataValidation>
-    <dataValidation sqref="C2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A12:A14</formula1>
-    </dataValidation>
-    <dataValidation sqref="C3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A12:A14</formula1>
-    </dataValidation>
-    <dataValidation sqref="C4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A12:A14</formula1>
-    </dataValidation>
-    <dataValidation sqref="D2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A20:A23</formula1>
-    </dataValidation>
-    <dataValidation sqref="D3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A20:A23</formula1>
-    </dataValidation>
-    <dataValidation sqref="D4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A20:A23</formula1>
-    </dataValidation>
-    <dataValidation sqref="E2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A29:A31</formula1>
-    </dataValidation>
-    <dataValidation sqref="E3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A29:A31</formula1>
-    </dataValidation>
-    <dataValidation sqref="E4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A29:A31</formula1>
-    </dataValidation>
+  <dataValidations count="24">
     <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>=rating_scales!A3:A6</formula1>
     </dataValidation>

--- a/Examples/AHP_Ratings_Lunch/lunchModel_Ratings_Results.xlsx
+++ b/Examples/AHP_Ratings_Lunch/lunchModel_Ratings_Results.xlsx
@@ -1224,6 +1224,34 @@
         <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="29">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="29">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="29">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="29">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H14">
     <cfRule type="dataBar" priority="1">
@@ -1268,6 +1296,27 @@
         <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="29">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="29">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="29">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I23">
     <cfRule type="dataBar" priority="1">
@@ -1326,6 +1375,34 @@
         <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="29">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="29">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="29">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="29">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:H31">
     <cfRule type="dataBar" priority="1">
@@ -1364,6 +1441,27 @@
       </dataBar>
     </cfRule>
     <cfRule type="dataBar" priority="15">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="29">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="29">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="29">
       <dataBar showValue="1">
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1504,7 +1602,7 @@
     <row r="7">
       <c r="A7" s="17" t="inlineStr">
         <is>
-          <t>ESTIMATED RESULTS</t>
+          <t>ESTIMATED TOTALS AND PRIORITIES</t>
         </is>
       </c>
       <c r="B7" s="17" t="inlineStr"/>
@@ -1654,7 +1752,43 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="24">
+  <dataValidations count="36">
+    <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="C2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="D2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="E2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
     <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>=rating_scales!A3:A6</formula1>
     </dataValidation>
